--- a/RTT_P2P/计算.xlsx
+++ b/RTT_P2P/计算.xlsx
@@ -19,11 +19,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,6 +37,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -55,10 +70,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,6 +125,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -87,98 +149,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,55 +193,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,12 +331,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -321,42 +350,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,11 +387,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -418,17 +441,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,188 +484,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,10 +985,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H24" sqref="H24:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1206,6 +1199,428 @@
       <c r="H10">
         <f t="shared" si="3"/>
         <v>828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>52305</v>
+      </c>
+      <c r="B13">
+        <f>C13-A13</f>
+        <v>-9</v>
+      </c>
+      <c r="C13" s="1">
+        <v>52296</v>
+      </c>
+      <c r="D13">
+        <f>E13-C13</f>
+        <v>-583</v>
+      </c>
+      <c r="E13" s="1">
+        <v>51713</v>
+      </c>
+      <c r="F13">
+        <f>G13-E13</f>
+        <v>864</v>
+      </c>
+      <c r="G13" s="1">
+        <v>52577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>53772</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B22" si="4">C14-A14</f>
+        <v>-9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>53763</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D22" si="5">E14-C14</f>
+        <v>-583</v>
+      </c>
+      <c r="E14" s="1">
+        <v>53180</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F22" si="6">G14-E14</f>
+        <v>865</v>
+      </c>
+      <c r="G14" s="1">
+        <v>54045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>54228</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>54219</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>-583</v>
+      </c>
+      <c r="E15" s="1">
+        <v>53636</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="6"/>
+        <v>858</v>
+      </c>
+      <c r="G15" s="1">
+        <v>54494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>54464</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>54455</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="5"/>
+        <v>-579</v>
+      </c>
+      <c r="E16" s="1">
+        <v>53876</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>855</v>
+      </c>
+      <c r="G16" s="1">
+        <v>54731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>54653</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="C17" s="1">
+        <v>54644</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>-578</v>
+      </c>
+      <c r="E17" s="1">
+        <v>54066</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="6"/>
+        <v>853</v>
+      </c>
+      <c r="G17" s="1">
+        <v>54919</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>54822</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>54813</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="5"/>
+        <v>-583</v>
+      </c>
+      <c r="E18" s="1">
+        <v>54230</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>858</v>
+      </c>
+      <c r="G18" s="1">
+        <v>55088</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>54981</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>54972</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>-583</v>
+      </c>
+      <c r="E19" s="1">
+        <v>54389</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="6"/>
+        <v>865</v>
+      </c>
+      <c r="G19" s="1">
+        <v>55254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>55169</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>55160</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>-583</v>
+      </c>
+      <c r="E20" s="1">
+        <v>54577</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="6"/>
+        <v>858</v>
+      </c>
+      <c r="G20" s="1">
+        <v>55435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>56141</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="4"/>
+        <v>-8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>56133</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="5"/>
+        <v>-584</v>
+      </c>
+      <c r="E21" s="1">
+        <v>55549</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="6"/>
+        <v>859</v>
+      </c>
+      <c r="G21" s="1">
+        <v>56408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>56395</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="4"/>
+        <v>-9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>56386</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="5"/>
+        <v>-583</v>
+      </c>
+      <c r="E22" s="1">
+        <v>55803</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>858</v>
+      </c>
+      <c r="G22" s="1">
+        <v>56661</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24">
+        <f>A14-A13</f>
+        <v>1467</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D32" si="7">C14-C13</f>
+        <v>1467</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24:F32" si="8">E14-E13</f>
+        <v>1467</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H32" si="9">G14-G13</f>
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25">
+        <f t="shared" ref="B25:B31" si="10">A15-A14</f>
+        <v>456</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="7"/>
+        <v>456</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="8"/>
+        <v>456</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="9"/>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26">
+        <f t="shared" si="10"/>
+        <v>236</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="7"/>
+        <v>236</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="9"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27">
+        <f t="shared" si="10"/>
+        <v>189</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="7"/>
+        <v>189</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="9"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28">
+        <f t="shared" si="10"/>
+        <v>169</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="7"/>
+        <v>169</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="9"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29">
+        <f t="shared" si="10"/>
+        <v>159</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="7"/>
+        <v>159</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
+        <v>159</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="9"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30">
+        <f t="shared" si="10"/>
+        <v>188</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="7"/>
+        <v>188</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
+        <v>188</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="9"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31">
+        <f t="shared" si="10"/>
+        <v>972</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="7"/>
+        <v>973</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="8"/>
+        <v>972</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="9"/>
+        <v>973</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32">
+        <f>A22-A21</f>
+        <v>254</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="7"/>
+        <v>253</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="8"/>
+        <v>254</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="9"/>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
